--- a/data/hotels_by_city/Houston/Houston_shard_312.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_312.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55536-d11676277-Reviews-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Holiday-Inn-Express-Suites-Brookshire-Katy-Freeway.h16373748.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531273779674&amp;cancellable=false&amp;regionId=6058897&amp;vip=false&amp;c=40b2e974-7a25-4113-9825-4735298343f1&amp;mctc=9&amp;exp_dp=79&amp;exp_ts=1531273786777&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,87 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r561625578-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>55536</t>
+  </si>
+  <si>
+    <t>11676277</t>
+  </si>
+  <si>
+    <t>561625578</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okish </t>
+  </si>
+  <si>
+    <t>We stayed here 3 nights. Firstly the place is absolutely brand new and I’m sure some teething problems are apparent. But firstly, soundproofing between the rooms is not good. You can hear a conversation in the next room, but also the traffic on the adjacent motorway is very loud. The staff are helpful and friendly, but it seemed obvious that on one day a young lad who was playing on a computer in the business centre was a child of one of the staff, which seems a bit unprofessional. The breakfast was ok, usual fare. I was surprised to witness a member of staff emptying the recycling and the normal rubbish both into the same bin!! So much for the green credentials. It also seemed unusual to see a procession of staff getting food from the breakfast buffet. Something I’ve not seen before. All in all we had a pleasant stay, the rooms are modern, well furnished, bathrooms are very clean and modern. But as I say, maybe a few teething issues. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Sarah S, Manager at Holiday Inn Express &amp; Suites Brookshire - Katy Freeway, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here 3 nights. Firstly the place is absolutely brand new and I’m sure some teething problems are apparent. But firstly, soundproofing between the rooms is not good. You can hear a conversation in the next room, but also the traffic on the adjacent motorway is very loud. The staff are helpful and friendly, but it seemed obvious that on one day a young lad who was playing on a computer in the business centre was a child of one of the staff, which seems a bit unprofessional. The breakfast was ok, usual fare. I was surprised to witness a member of staff emptying the recycling and the normal rubbish both into the same bin!! So much for the green credentials. It also seemed unusual to see a procession of staff getting food from the breakfast buffet. Something I’ve not seen before. All in all we had a pleasant stay, the rooms are modern, well furnished, bathrooms are very clean and modern. But as I say, maybe a few teething issues. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r536607412-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>536607412</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Don't Stay</t>
+  </si>
+  <si>
+    <t>Refurbishing but did not warn me in advance. There is no dining area, no room service, one working elevator, terrible Internet, and I have only stayed one night of my 3 nights which are pre-paid, non refundable. There are better options nearby, don't stay here.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r516651014-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>516651014</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Crappy hotel</t>
+  </si>
+  <si>
+    <t>Made reservations for 3 nights. called  2 days prior to reservation to cancel due to hurricane and was told that I could not cancel. I am out $300+ for nothing. I will never stay at this hotel. No compromise, no discussion, just a flat out no!!!!!!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
 </sst>
 </file>
@@ -532,11 +619,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +651,256 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_312.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,117 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r614358789-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>55536</t>
+  </si>
+  <si>
+    <t>11676277</t>
+  </si>
+  <si>
+    <t>614358789</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>HIE Brookshire Tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is new and in good shape. Significant drawback is the noise level due to the proximity to very busy I-10.Breakfast is average. Wi-Fi and TV along with other equipment is good. No good restaurants in the vicinity. No newspapers provided. </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r610035904-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>610035904</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>I was here for a job in Brookshire. Ended up staying at this new property for five nights. Overall, a very nice property. The manager, Johnny Rios, was very helpful and quite friendly. The room was excellent--bed was very comfortable. Everything was very clean, and the service was great. The breakfast was abundant and varied. First rate workout room.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r581308539-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>581308539</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Very average</t>
+  </si>
+  <si>
+    <t>I’ll start with the positives. Or positive. The cinnamon buns for breakfast were superb. Sadly our room was not. First room we had to move from as the noise was so bad. Second one the window blinds were broken so had no natural light during our stay. And the tv didn’t work. No recognition from front desk staff of IHG reward status. Overall just very poor compared to other HI Express hotels we’ve stayed in during our travels through TX and LA. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Sarah S, Manager at Holiday Inn Express &amp; Suites Brookshire - Katy Freeway, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>I’ll start with the positives. Or positive. The cinnamon buns for breakfast were superb. Sadly our room was not. First room we had to move from as the noise was so bad. Second one the window blinds were broken so had no natural light during our stay. And the tv didn’t work. No recognition from front desk staff of IHG reward status. Overall just very poor compared to other HI Express hotels we’ve stayed in during our travels through TX and LA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r566313854-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>566313854</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>very good place to stay at .the front desk people are so nice and friendly .the rooms areclean and the breakfast is good</t>
+  </si>
+  <si>
+    <t>IT a good place to stay the front desk people are friendly and nice .the breakfast is good .the rooms are so clean .the pool is clean and a nice place to go sit down and relax by the pool .I would go stay over there againMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Sarah S, Manager at Holiday Inn Express &amp; Suites Brookshire - Katy Freeway, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>IT a good place to stay the front desk people are friendly and nice .the breakfast is good .the rooms are so clean .the pool is clean and a nice place to go sit down and relax by the pool .I would go stay over there againMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r561625578-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
   </si>
   <si>
-    <t>55536</t>
-  </si>
-  <si>
-    <t>11676277</t>
-  </si>
-  <si>
     <t>561625578</t>
   </si>
   <si>
@@ -174,9 +273,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Sarah S, Manager at Holiday Inn Express &amp; Suites Brookshire - Katy Freeway, responded to this reviewResponded February 27, 2018</t>
   </si>
   <si>
@@ -226,6 +322,29 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d11676277-r494237890-Holiday_Inn_Express_Suites_Brookshire_Katy_Freeway-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>494237890</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE FRONT DESK STAFF</t>
+  </si>
+  <si>
+    <t>I booked a night at this Holiday Inn Express in Brookshire because I was in a wedding that night and I have always had good experiences with Holiday Inns. After the wedding it was 11:15, my family had already checked into the hotel before the wedding because I was in the bridal party I had to stay and help clean up after the wedding which is why I did not have my key. I get to the hotel at 11:30 and I ring the buzzer because the door was locked… I ring it again and wait… at this point I start knocking on the window and yelling “hello, anyone in there”. 
+Well after about 10 min of waiting and no one answering the buzzer and me screaming and yelling and banking on the windows and doors, I called the hotel number and expected someone to answer the phone so I could tell them to let me in. I sat there and listed to the phone ring and ring and ring for a solid 4 min. All the while I am ringing the buzzer, banging on the window and nothing… FINALLY some girl (later found out Dominque) answers the phone and doesn’t even look at the front door.  I start screaming open the door.  Once she finally came to the door I did not get an “I’m sorry” or anything… I was greeted with “where is your key?” this is infuriating....I booked a night at this Holiday Inn Express in Brookshire because I was in a wedding that night and I have always had good experiences with Holiday Inns. After the wedding it was 11:15, my family had already checked into the hotel before the wedding because I was in the bridal party I had to stay and help clean up after the wedding which is why I did not have my key. I get to the hotel at 11:30 and I ring the buzzer because the door was locked… I ring it again and wait… at this point I start knocking on the window and yelling “hello, anyone in there”. Well after about 10 min of waiting and no one answering the buzzer and me screaming and yelling and banking on the windows and doors, I called the hotel number and expected someone to answer the phone so I could tell them to let me in. I sat there and listed to the phone ring and ring and ring for a solid 4 min. All the while I am ringing the buzzer, banging on the window and nothing… FINALLY some girl (later found out Dominque) answers the phone and doesn’t even look at the front door.  I start screaming open the door.  Once she finally came to the door I did not get an “I’m sorry” or anything… I was greeted with “where is your key?” this is infuriating. I told her my family is already up in the room with the key sleeping seeing as how it is almost midnight. At this point I am furious my words being “I have been standing here for over 20 min screaming, buzzing the door, banging on the door” and her response “well I was in the back doing my job and that buzzer doesn’t work” ….. ummm what? Isn’t your job to take care of guest and check them in and help them to get into the hotel? What could you have possibly been doing at midnight in the back? If my family had not been up the their room already I would have gone down the street and stayed at the LaQuinta! I understand the doors being locked as these hotels are right off the highway but I am standing at the door in a bridesmaid dress holding two suitcases… I am pretty sure it was obvious I was checking in.Now the night before this I stayed at the Liquanta down the road with the bride and we had no trouble checking in at midnight and getting in the door because someone answered the buzzer and greeted us with a smile. So of course in my mind I was thinking I will have no problem getting in because people come all the time for late check in and there should be someone at the front desk. Word of advice… stay at the LaQuinta down the street!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I booked a night at this Holiday Inn Express in Brookshire because I was in a wedding that night and I have always had good experiences with Holiday Inns. After the wedding it was 11:15, my family had already checked into the hotel before the wedding because I was in the bridal party I had to stay and help clean up after the wedding which is why I did not have my key. I get to the hotel at 11:30 and I ring the buzzer because the door was locked… I ring it again and wait… at this point I start knocking on the window and yelling “hello, anyone in there”. 
+Well after about 10 min of waiting and no one answering the buzzer and me screaming and yelling and banking on the windows and doors, I called the hotel number and expected someone to answer the phone so I could tell them to let me in. I sat there and listed to the phone ring and ring and ring for a solid 4 min. All the while I am ringing the buzzer, banging on the window and nothing… FINALLY some girl (later found out Dominque) answers the phone and doesn’t even look at the front door.  I start screaming open the door.  Once she finally came to the door I did not get an “I’m sorry” or anything… I was greeted with “where is your key?” this is infuriating....I booked a night at this Holiday Inn Express in Brookshire because I was in a wedding that night and I have always had good experiences with Holiday Inns. After the wedding it was 11:15, my family had already checked into the hotel before the wedding because I was in the bridal party I had to stay and help clean up after the wedding which is why I did not have my key. I get to the hotel at 11:30 and I ring the buzzer because the door was locked… I ring it again and wait… at this point I start knocking on the window and yelling “hello, anyone in there”. Well after about 10 min of waiting and no one answering the buzzer and me screaming and yelling and banking on the windows and doors, I called the hotel number and expected someone to answer the phone so I could tell them to let me in. I sat there and listed to the phone ring and ring and ring for a solid 4 min. All the while I am ringing the buzzer, banging on the window and nothing… FINALLY some girl (later found out Dominque) answers the phone and doesn’t even look at the front door.  I start screaming open the door.  Once she finally came to the door I did not get an “I’m sorry” or anything… I was greeted with “where is your key?” this is infuriating. I told her my family is already up in the room with the key sleeping seeing as how it is almost midnight. At this point I am furious my words being “I have been standing here for over 20 min screaming, buzzing the door, banging on the door” and her response “well I was in the back doing my job and that buzzer doesn’t work” ….. ummm what? Isn’t your job to take care of guest and check them in and help them to get into the hotel? What could you have possibly been doing at midnight in the back? If my family had not been up the their room already I would have gone down the street and stayed at the LaQuinta! I understand the doors being locked as these hotels are right off the highway but I am standing at the door in a bridesmaid dress holding two suitcases… I am pretty sure it was obvious I was checking in.Now the night before this I stayed at the Liquanta down the road with the bride and we had no trouble checking in at midnight and getting in the door because someone answered the buzzer and greeted us with a smile. So of course in my mind I was thinking I will have no problem getting in because people come all the time for late check in and there should be someone at the front desk. Word of advice… stay at the LaQuinta down the street!More</t>
   </si>
 </sst>
 </file>
@@ -777,14 +896,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -809,25 +924,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -841,7 +956,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -857,7 +972,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -866,41 +981,350 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65760</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
